--- a/biology/Zoologie/Formica_alsatica/Formica_alsatica.xlsx
+++ b/biology/Zoologie/Formica_alsatica/Formica_alsatica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Formica alsatica est une espèce fossile de fourmis du genre Formica dans la tribu des Formicini.
 </t>
@@ -511,14 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Formica alsatica est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse[1]. 
-Fossiles
-L'holotype R565 femelle, de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma.) vient de la collection Mieg, collection conservée au Musée d'histoire naturelle de Bâle[2]. Ce spécimen proviennent du gisement de Kleinkembs éocène[2], dans le Bade-Wurtemberg, au sud de la frontière franco-allemande du Rhin[2]. Il y a aussi un holotype male R591.
-Il a de nombreux cotypes R519, 264,216, 39, 44, 53, 55, 67, 175, 193, 211, 290, 299, 316, 532, 687, 686, 693, 715, 763, 775, 804 de la même provenance que l'holotype[2].
-Étymologie
-L'épithète spécifique latine alsatica signifie « alsacien ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Formica alsatica est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse. 
 </t>
         </is>
       </c>
@@ -544,21 +553,172 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype R565 femelle, de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma.) vient de la collection Mieg, collection conservée au Musée d'histoire naturelle de Bâle. Ce spécimen proviennent du gisement de Kleinkembs éocène, dans le Bade-Wurtemberg, au sud de la frontière franco-allemande du Rhin. Il y a aussi un holotype male R591.
+Il a de nombreux cotypes R519, 264,216, 39, 44, 53, 55, 67, 175, 193, 211, 290, 299, 316, 532, 687, 686, 693, 715, 763, 775, 804 de la même provenance que l'holotype.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Formica_alsatica</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formica_alsatica</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique latine alsatica signifie « alsacien ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Formica_alsatica</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formica_alsatica</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[2],[note 1] : Pour l'holotype femelle R565 : 
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 1] : Pour l'holotype femelle R565 : 
 « Insecte de couleur brun-jaunâtre, ailes transparentes à nervures jaunes; pattes claires.
-Tête subsphérique, un peu plus longue que large; yeux assez gros, arrondis; clypeus court, elliptique; en avant fragment des palpes maxillaires, montrant 4 segments. Cou net; Thorax ovale; pronotum non visible sur la face dorsale; mésonotum bien développé, en forme de bouclier; scutellum large, arrondi à l'arrière. Pétiole court. Abdomen ovoïde, un peu allongé, 5 segments; le dernier porte une aire pygidiale en entonnoir renversé. Fragments des pattes III. Ailes transparentes, stigma étroit, allongé; nervation assez effacée »[2]
+Tête subsphérique, un peu plus longue que large; yeux assez gros, arrondis; clypeus court, elliptique; en avant fragment des palpes maxillaires, montrant 4 segments. Cou net; Thorax ovale; pronotum non visible sur la face dorsale; mésonotum bien développé, en forme de bouclier; scutellum large, arrondi à l'arrière. Pétiole court. Abdomen ovoïde, un peu allongé, 5 segments; le dernier porte une aire pygidiale en entonnoir renversé. Fragments des pattes III. Ailes transparentes, stigma étroit, allongé; nervation assez effacée »
 Pour l'holotype mâle R591 : 
-« Insecte semblable au précédent, mais tête et thorax de teinte plus foncée. La tête porte encore des restes des antennes et des mandibules; les ailes manquent. »[2].
-Dimensions
-La longueur totale est de 6,2 mm pour l'holotype femelle R386[2].
-Affinités
-« F. alsatica se distingue de F. flori par son abdomen plus globuleux et sa teinte plus claire. L'abdomen est plus régulièrement arrondi que F. tripartita ».[2].
+« Insecte semblable au précédent, mais tête et thorax de teinte plus foncée. La tête porte encore des restes des antennes et des mandibules; les ailes manquent. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Formica_alsatica</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formica_alsatica</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 6,2 mm pour l'holotype femelle R386.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Formica_alsatica</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formica_alsatica</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« F. alsatica se distingue de F. flori par son abdomen plus globuleux et sa teinte plus claire. L'abdomen est plus régulièrement arrondi que F. tripartita »..
 </t>
         </is>
       </c>
